--- a/Inscriptions Tournoi d'échecs franco-ontarien 2026.xlsx
+++ b/Inscriptions Tournoi d'échecs franco-ontarien 2026.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Joueurs" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Équipes" sheetId="2" r:id="rId5"/>
+    <sheet name="Joueurs" sheetId="1" r:id="rId3"/>
+    <sheet name="Équipes" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>root</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B6">
+    <comment ref="B6" authorId="0">
       <text>
-        <t xml:space="preserve">@animationculturelle@grandnord.ca 
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>@animationculturelle@grandnord.ca 
 Est-ce que c'est clair?
 	-Natalie Lalonde</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Formulaire d'inscription</t>
   </si>
@@ -60,18 +73,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Open Sans"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Télécharger ce document Excel sur votre bureau afin de le compléter et de me le retourner au plus tard le </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Open Sans"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>22 février 2026</t>
     </r>
@@ -125,18 +140,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Open Sans"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Télécharger ce document Excel sur votre bureau afin de le compléter et de me le retourner au plus tard le </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Open Sans"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="2"/>
       </rPr>
       <t>22 février 2026</t>
     </r>
@@ -183,6 +200,9 @@
   <si>
     <t>Équipe 14</t>
   </si>
+  <si>
+    <t>* SVP faire parvenir les inscriptions par courriel avant le 22 février 2026 (natalie.lalonde@grandnord.ca)</t>
+  </si>
 </sst>
 </file>
 
@@ -193,40 +213,51 @@
   </numFmts>
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Open Sans"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FFB1DACF"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="12"/>
       <color rgb="FFB1DACF"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFB1DACF"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -234,99 +265,109 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB1DACF"/>
-        <bgColor rgb="FFB1DACF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF20124D"/>
-        <bgColor rgb="FF20124D"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
-    <border/>
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -339,14 +380,12 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom/>
     </border>
     <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -357,21 +396,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -381,7 +406,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -401,6 +438,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -409,6 +447,8 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -420,18 +460,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <right/>
       <top/>
       <bottom/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -443,109 +477,289 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="6" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="7" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="8" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="9" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="10" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="11" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="12" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="13" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="3" builtinId="7"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -556,19 +770,29 @@
     <xdr:ext cx="1790700" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="0" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02906189-99ee-4d36-a91f-af6262b92bb8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="6457950" y="3533775"/>
+          <a:ext cx="1790700" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
@@ -578,7 +802,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -589,19 +813,29 @@
     <xdr:ext cx="1790700" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="0" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{b9eb00b7-3487-4d1c-b4fe-0e7b5b9b7a17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="6400800" y="3248025"/>
+          <a:ext cx="1790700" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
@@ -805,27 +1039,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:X224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="2" max="2" width="38.13"/>
-    <col customWidth="1" min="3" max="3" width="13.13"/>
-    <col customWidth="1" min="4" max="4" width="13.38"/>
-    <col customWidth="1" min="5" max="5" width="23.0"/>
-    <col customWidth="1" min="6" max="6" width="8.13"/>
-    <col customWidth="1" min="7" max="7" width="22.88"/>
-    <col customWidth="1" min="8" max="8" width="29.63"/>
+    <col min="1" max="1" width="5.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="38.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="29.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -848,7 +1084,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -871,7 +1107,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -894,7 +1130,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="H4" s="1"/>
@@ -915,10 +1151,10 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
+    <row r="5" spans="1:24" ht="22.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -943,7 +1179,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" ht="23.25" customHeight="1">
+    <row r="6" spans="1:24" ht="23.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -971,7 +1207,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" ht="23.25" customHeight="1">
+    <row r="7" spans="1:24" ht="23.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -999,7 +1235,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" ht="36.0" customHeight="1">
+    <row r="8" spans="1:24" ht="36" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -1027,7 +1263,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" ht="36.0" customHeight="1">
+    <row r="9" spans="1:24" ht="36" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -1055,7 +1291,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1081,7 +1317,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -1109,7 +1345,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1135,7 +1371,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" ht="24.0" customHeight="1">
+    <row r="13" spans="1:24" ht="24" customHeight="1" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>9</v>
@@ -1163,7 +1399,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1189,7 +1425,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>10</v>
@@ -1216,7 +1452,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
         <v>11</v>
@@ -1243,7 +1479,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
         <v>12</v>
@@ -1270,7 +1506,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
         <v>13</v>
@@ -1297,7 +1533,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21" t="s">
         <v>14</v>
@@ -1324,7 +1560,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
         <v>15</v>
@@ -1351,7 +1587,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21" t="s">
         <v>16</v>
@@ -1378,7 +1614,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="H22" s="1"/>
@@ -1399,7 +1635,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="H23" s="1"/>
@@ -1420,7 +1656,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" ht="36.0" customHeight="1">
+    <row r="24" spans="1:24" ht="36" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
@@ -1460,7 +1696,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1486,7 +1722,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -1512,7 +1748,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -1538,7 +1774,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -1564,7 +1800,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -1590,7 +1826,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -1616,7 +1852,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -1642,7 +1878,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -1668,7 +1904,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -1694,7 +1930,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -1720,7 +1956,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -1746,7 +1982,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -1772,7 +2008,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1798,7 +2034,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -1824,7 +2060,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1850,7 +2086,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -1876,7 +2112,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1902,7 +2138,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -1928,7 +2164,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -1954,7 +2190,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -1980,7 +2216,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -2006,7 +2242,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -2032,7 +2268,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -2058,7 +2294,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -2084,7 +2320,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -2110,7 +2346,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -2136,7 +2372,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -2162,7 +2398,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -2188,7 +2424,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -2214,7 +2450,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -2240,7 +2476,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -2266,7 +2502,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -2292,7 +2528,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -2318,7 +2554,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -2344,7 +2580,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -2370,7 +2606,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2396,7 +2632,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -2422,7 +2658,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -2448,7 +2684,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -2474,7 +2710,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -2500,7 +2736,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -2526,7 +2762,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -2552,7 +2788,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -2578,7 +2814,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -2604,7 +2840,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2630,7 +2866,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -2656,7 +2892,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -2682,7 +2918,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -2708,7 +2944,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -2734,7 +2970,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -2760,7 +2996,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -2786,7 +3022,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -2812,7 +3048,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -2838,7 +3074,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -2864,7 +3100,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -2890,7 +3126,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -2916,7 +3152,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -2942,7 +3178,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -2968,7 +3204,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -2994,7 +3230,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -3020,7 +3256,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -3046,7 +3282,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -3072,7 +3308,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -3098,7 +3334,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -3124,7 +3360,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -3150,7 +3386,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -3176,7 +3412,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -3202,7 +3438,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -3228,7 +3464,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -3254,7 +3490,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -3280,7 +3516,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3306,7 +3542,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3332,7 +3568,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3358,7 +3594,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3384,7 +3620,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3410,7 +3646,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3436,7 +3672,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3462,7 +3698,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3488,7 +3724,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3514,7 +3750,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3540,7 +3776,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3566,7 +3802,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3592,7 +3828,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3618,7 +3854,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3644,7 +3880,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3670,7 +3906,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3696,7 +3932,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3722,7 +3958,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3748,7 +3984,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3774,7 +4010,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3800,7 +4036,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3826,7 +4062,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3852,7 +4088,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3878,7 +4114,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3904,7 +4140,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3930,7 +4166,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3956,7 +4192,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3982,7 +4218,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4008,7 +4244,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4034,7 +4270,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4060,7 +4296,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4086,7 +4322,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4112,7 +4348,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4138,7 +4374,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4164,7 +4400,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4190,7 +4426,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4216,7 +4452,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4242,7 +4478,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4268,7 +4504,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4294,7 +4530,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4320,7 +4556,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4346,7 +4582,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4372,7 +4608,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4398,7 +4634,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4424,7 +4660,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4450,7 +4686,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4476,7 +4712,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4502,7 +4738,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4528,7 +4764,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4554,7 +4790,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4580,7 +4816,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4606,7 +4842,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4632,7 +4868,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4658,7 +4894,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4684,7 +4920,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4710,7 +4946,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4736,7 +4972,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4762,7 +4998,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4788,7 +5024,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4814,7 +5050,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4840,7 +5076,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4866,7 +5102,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4892,7 +5128,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4918,7 +5154,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4944,7 +5180,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4970,7 +5206,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4996,7 +5232,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5022,7 +5258,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5048,7 +5284,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5074,7 +5310,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5100,7 +5336,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5126,7 +5362,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5152,7 +5388,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5178,7 +5414,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5204,7 +5440,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5230,7 +5466,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5256,7 +5492,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5282,7 +5518,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5308,7 +5544,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5334,7 +5570,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5360,7 +5596,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5386,7 +5622,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5412,7 +5648,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5438,7 +5674,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5464,7 +5700,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5490,7 +5726,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5516,7 +5752,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5542,7 +5778,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5568,7 +5804,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5594,7 +5830,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5620,7 +5856,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5646,7 +5882,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5672,7 +5908,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5698,7 +5934,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5724,7 +5960,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5750,7 +5986,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5776,7 +6012,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5802,7 +6038,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5828,7 +6064,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5854,7 +6090,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5880,7 +6116,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5906,7 +6142,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5932,7 +6168,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5958,7 +6194,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5984,7 +6220,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6010,7 +6246,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6036,7 +6272,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6062,7 +6298,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6088,7 +6324,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6114,7 +6350,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6140,7 +6376,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6166,7 +6402,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6192,7 +6428,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6218,7 +6454,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6244,7 +6480,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6270,7 +6506,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6296,7 +6532,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6322,7 +6558,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6348,7 +6584,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6374,7 +6610,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6400,7 +6636,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6426,7 +6662,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6452,7 +6688,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6478,7 +6714,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6504,7 +6740,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6530,7 +6766,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6556,7 +6792,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6582,7 +6818,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6608,7 +6844,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6634,7 +6870,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7462,46 +7698,34 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="F15:G21"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G25:G94">
-      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C25:C94">
-      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D25:D94">
-      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:X308"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="2" max="2" width="38.13"/>
-    <col customWidth="1" min="3" max="3" width="13.13"/>
-    <col customWidth="1" min="4" max="4" width="13.38"/>
-    <col customWidth="1" min="5" max="5" width="23.0"/>
-    <col customWidth="1" min="6" max="6" width="8.13"/>
-    <col customWidth="1" min="7" max="7" width="22.88"/>
+    <col min="1" max="1" width="5.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="38.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7524,7 +7748,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -7547,7 +7771,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -7570,7 +7794,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="H4" s="1"/>
@@ -7591,7 +7815,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -7619,7 +7843,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" ht="26.25" customHeight="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -7647,7 +7871,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" ht="23.25" customHeight="1">
+    <row r="7" spans="1:24" ht="23.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
         <v>4</v>
@@ -7675,7 +7899,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" ht="24.0" customHeight="1">
+    <row r="8" spans="1:24" ht="24" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -7703,7 +7927,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -7731,7 +7955,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -7757,7 +7981,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -7785,7 +8009,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -7811,7 +8035,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
         <v>25</v>
@@ -7839,7 +8063,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="27"/>
       <c r="C14" s="9"/>
@@ -7865,7 +8089,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
         <v>10</v>
@@ -7892,7 +8116,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
         <v>11</v>
@@ -7919,7 +8143,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
         <v>12</v>
@@ -7946,7 +8170,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
         <v>13</v>
@@ -7973,7 +8197,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21" t="s">
         <v>14</v>
@@ -8000,7 +8224,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
         <v>15</v>
@@ -8027,7 +8251,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21" t="s">
         <v>16</v>
@@ -8054,7 +8278,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="H22" s="1"/>
@@ -8075,7 +8299,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="H23" s="1"/>
@@ -8096,7 +8320,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" ht="36.0" customHeight="1">
+    <row r="24" spans="1:24" ht="36" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
@@ -8134,7 +8358,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="29" t="s">
         <v>26</v>
@@ -8162,9 +8386,9 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -8190,9 +8414,9 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -8218,9 +8442,9 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -8246,9 +8470,9 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -8274,9 +8498,9 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -8302,7 +8526,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="33" t="s">
         <v>27</v>
@@ -8330,9 +8554,9 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -8358,9 +8582,9 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -8386,9 +8610,9 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -8414,9 +8638,9 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -8442,9 +8666,9 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -8470,7 +8694,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="36" t="s">
         <v>28</v>
@@ -8498,9 +8722,9 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8526,9 +8750,9 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8554,9 +8778,9 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -8582,9 +8806,9 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -8610,9 +8834,9 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -8638,7 +8862,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="39" t="s">
         <v>29</v>
@@ -8666,9 +8890,9 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -8694,9 +8918,9 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -8722,9 +8946,9 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -8750,9 +8974,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -8778,9 +9002,9 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -8806,7 +9030,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="42" t="s">
         <v>30</v>
@@ -8834,9 +9058,9 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -8862,9 +9086,9 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -8890,9 +9114,9 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -8918,9 +9142,9 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -8946,9 +9170,9 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -8974,7 +9198,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="45" t="s">
         <v>31</v>
@@ -9002,9 +9226,9 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -9030,9 +9254,9 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -9058,9 +9282,9 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -9086,9 +9310,9 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
@@ -9114,9 +9338,9 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B60" s="46"/>
       <c r="C60" s="46"/>
@@ -9142,7 +9366,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="48" t="s">
         <v>32</v>
@@ -9170,9 +9394,9 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
@@ -9198,9 +9422,9 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
@@ -9226,9 +9450,9 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
@@ -9254,9 +9478,9 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
@@ -9282,9 +9506,9 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
@@ -9310,7 +9534,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="51" t="s">
         <v>33</v>
@@ -9338,9 +9562,9 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
@@ -9366,9 +9590,9 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
@@ -9394,9 +9618,9 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
@@ -9422,9 +9646,9 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
@@ -9450,9 +9674,9 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
@@ -9478,7 +9702,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="54" t="s">
         <v>34</v>
@@ -9506,9 +9730,9 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -9534,9 +9758,9 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -9562,9 +9786,9 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -9590,9 +9814,9 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -9618,9 +9842,9 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -9646,7 +9870,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="33" t="s">
         <v>35</v>
@@ -9674,9 +9898,9 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -9702,9 +9926,9 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -9730,9 +9954,9 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -9758,9 +9982,9 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -9786,9 +10010,9 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -9814,7 +10038,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="36" t="s">
         <v>36</v>
@@ -9842,9 +10066,9 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -9870,9 +10094,9 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -9898,9 +10122,9 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -9926,9 +10150,9 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -9954,9 +10178,9 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
@@ -9982,7 +10206,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="39" t="s">
         <v>37</v>
@@ -10010,9 +10234,9 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B92" s="40"/>
       <c r="C92" s="40"/>
@@ -10038,9 +10262,9 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B93" s="40"/>
       <c r="C93" s="40"/>
@@ -10066,9 +10290,9 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B94" s="40"/>
       <c r="C94" s="40"/>
@@ -10094,9 +10318,9 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40"/>
@@ -10122,9 +10346,9 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -10150,7 +10374,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="42" t="s">
         <v>38</v>
@@ -10178,9 +10402,9 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -10206,9 +10430,9 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -10234,9 +10458,9 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -10262,9 +10486,9 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -10290,9 +10514,9 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -10318,7 +10542,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="45" t="s">
         <v>39</v>
@@ -10346,9 +10570,9 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B104" s="46"/>
       <c r="C104" s="46"/>
@@ -10374,9 +10598,9 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
@@ -10402,9 +10626,9 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
@@ -10430,9 +10654,9 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B107" s="46"/>
       <c r="C107" s="46"/>
@@ -10458,9 +10682,9 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B108" s="46"/>
       <c r="C108" s="46"/>
@@ -10486,7 +10710,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -10512,7 +10736,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -10538,7 +10762,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -10564,7 +10788,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -10590,7 +10814,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -10616,7 +10840,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -10642,7 +10866,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -10668,7 +10892,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -10694,7 +10918,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10720,7 +10944,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10746,7 +10970,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -10772,7 +10996,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -10798,7 +11022,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -10824,7 +11048,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -10850,7 +11074,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -10876,7 +11100,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -10902,7 +11126,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -10928,7 +11152,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -10954,7 +11178,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -10980,7 +11204,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -11006,7 +11230,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -11032,7 +11256,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -11058,7 +11282,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -11084,7 +11308,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -11110,7 +11334,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -11136,7 +11360,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -11162,7 +11386,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -11188,7 +11412,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -11214,7 +11438,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -11240,7 +11464,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -11266,7 +11490,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -11292,7 +11516,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -11318,7 +11542,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -11344,7 +11568,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -11370,7 +11594,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -11396,7 +11620,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -11422,7 +11646,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -11448,7 +11672,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -11474,7 +11698,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -11500,7 +11724,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -11526,7 +11750,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -11552,7 +11776,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -11578,7 +11802,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -11604,7 +11828,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -11630,7 +11854,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -11656,7 +11880,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -11682,7 +11906,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -11708,7 +11932,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -11734,7 +11958,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -11760,7 +11984,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -11786,7 +12010,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -11812,7 +12036,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -11838,7 +12062,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -11864,7 +12088,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -11890,7 +12114,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -11916,7 +12140,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -11942,7 +12166,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -11968,7 +12192,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -11994,7 +12218,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -12020,7 +12244,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -12046,7 +12270,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -12072,7 +12296,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -12098,7 +12322,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -12124,7 +12348,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -12150,7 +12374,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -12176,7 +12400,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -12202,7 +12426,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -12228,7 +12452,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -12254,7 +12478,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -12280,7 +12504,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -12306,7 +12530,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -12332,7 +12556,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -12358,7 +12582,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -12384,7 +12608,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -12410,7 +12634,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -12436,7 +12660,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -12462,7 +12686,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -12488,7 +12712,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -12514,7 +12738,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12540,7 +12764,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12566,7 +12790,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12592,7 +12816,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12618,7 +12842,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12644,7 +12868,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12670,7 +12894,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12696,7 +12920,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12722,7 +12946,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12748,7 +12972,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12774,7 +12998,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12800,7 +13024,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12826,7 +13050,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12852,7 +13076,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12878,7 +13102,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12904,7 +13128,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12930,7 +13154,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12956,7 +13180,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12982,7 +13206,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -13008,7 +13232,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13034,7 +13258,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13060,7 +13284,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13086,7 +13310,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13112,7 +13336,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13138,7 +13362,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13164,7 +13388,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -13190,7 +13414,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -13216,7 +13440,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -13242,7 +13466,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13268,7 +13492,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13294,7 +13518,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13320,7 +13544,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13346,7 +13570,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13372,7 +13596,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13398,7 +13622,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13424,7 +13648,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13450,7 +13674,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13476,7 +13700,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:24" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13502,7 +13726,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:24" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13528,7 +13752,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:24" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -13554,7 +13778,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:24" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13580,7 +13804,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:24" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -13606,7 +13830,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:24" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -13632,7 +13856,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:24" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13658,7 +13882,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:24" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13684,7 +13908,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:24" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13710,7 +13934,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:24" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13736,7 +13960,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:24" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -13762,7 +13986,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:24" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -13788,7 +14012,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:24" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -13814,7 +14038,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:24" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13840,7 +14064,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:24" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13866,7 +14090,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:24" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13892,7 +14116,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:24" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -13918,7 +14142,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:24" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13944,7 +14168,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:24" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -13970,7 +14194,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:24" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -13996,7 +14220,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:24" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -14022,7 +14246,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:24" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14048,7 +14272,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:24" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -14074,7 +14298,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:24" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -14100,7 +14324,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:24" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -14126,7 +14350,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:24" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -14152,7 +14376,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:24" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -14178,7 +14402,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:24" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -14204,7 +14428,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:24" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -14230,7 +14454,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:24" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -14256,7 +14480,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:24" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -14282,7 +14506,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:24" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -14308,7 +14532,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:24" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -14334,7 +14558,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:24" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -14360,7 +14584,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:24" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -14386,7 +14610,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:24" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -14412,7 +14636,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:24" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -14438,7 +14662,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:24" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -14464,7 +14688,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:24" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -14490,7 +14714,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:24" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -14516,7 +14740,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:24" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -14542,7 +14766,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:24" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -14568,7 +14792,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:24" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -14594,7 +14818,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:24" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -14620,7 +14844,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:24" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -14646,7 +14870,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:24" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -14672,7 +14896,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:24" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14698,7 +14922,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:24" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -14724,7 +14948,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:24" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -14750,7 +14974,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:24" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14776,7 +15000,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:24" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14802,7 +15026,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:24" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -14828,7 +15052,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:24" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -14854,7 +15078,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:24" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -14880,7 +15104,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:24" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -14906,7 +15130,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:24" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -14932,7 +15156,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:24" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14958,7 +15182,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:24" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14984,7 +15208,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:24" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -15010,7 +15234,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:24" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -15036,7 +15260,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:24" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -15062,7 +15286,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:24" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -15088,7 +15312,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:24" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -15114,7 +15338,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:24" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -15140,7 +15364,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:24" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -15166,7 +15390,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:24" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15192,7 +15416,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:24" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -15218,7 +15442,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:24" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15244,7 +15468,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:24" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -15270,7 +15494,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:24" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -15296,7 +15520,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:24" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -15322,7 +15546,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:24" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -15348,7 +15572,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:24" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -15374,7 +15598,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:24" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15400,7 +15624,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:24" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -15426,7 +15650,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:24" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -15452,7 +15676,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:24" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -15478,7 +15702,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:24" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15504,7 +15728,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:24" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15530,7 +15754,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:24" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -15556,7 +15780,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:24" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -15582,7 +15806,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:24" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -15608,7 +15832,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:24" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -15634,7 +15858,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:24" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15660,7 +15884,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:24" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -16419,20 +16643,136 @@
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="B85:G85"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G26:G30 G32:G36 G38:G42 G44:G48 G50:G54 G56:G60 G62:G66 G68:G72 G74:G78 G80:G84 G86:G90 G92:G96 G98:G102 G104:G108">
+  <dataValidations count="42">
+    <dataValidation type="list" showErrorMessage="1" sqref="G26:G30">
       <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C26:C30 C32:C36 C38:C42 C44:C48 C50:C54 C56:C60 C62:C66 C68:C72 C74:C78 C80:C84 C86:C90 C92:C96 C98:C102 C104:C108">
+    <dataValidation type="list" showErrorMessage="1" sqref="G32:G36">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G38:G42">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G44:G48">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G50:G54">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G56:G60">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G62:G66">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G68:G72">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G74:G78">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G80:G84">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G86:G90">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G92:G96">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G98:G102">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="G104:G108">
+      <formula1>"Maternelle,Jardin,1re,2e,3e,4e,5e,6e,7e,8e,9e,10e,11e,12e"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C26:C30">
       <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D26:D30 D32:D36 D38:D42 D44:D48 D50:D54 D56:D60 D62:D66 D68:D72 D74:D78 D80:D84 D86:D90 D92:D96 D98:D102 D104:D108">
+    <dataValidation type="list" showErrorMessage="1" sqref="C32:C36">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C38:C42">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C44:C48">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C50:C54">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C56:C60">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C62:C66">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C68:C72">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C74:C78">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C80:C84">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C86:C90">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C92:C96">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C98:C102">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="C104:C108">
+      <formula1>"maternelle - 4e,5e - 6e,7e - 8e,Secondaire"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D26:D30">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D32:D36">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D38:D42">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D44:D48">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D50:D54">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D56:D60">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D62:D66">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D68:D72">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D74:D78">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D80:D84">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D86:D90">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D92:D96">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D98:D102">
+      <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="D104:D108">
       <formula1>"masculin,féminin,préfère ne pas répondre"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inscriptions Tournoi d'échecs franco-ontarien 2026.xlsx
+++ b/Inscriptions Tournoi d'échecs franco-ontarien 2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Joueurs" sheetId="1" r:id="rId3"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Formulaire d'inscription</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>8 avril au 10 avril 2026 - École secondaire Hanmer et École publique Foyer-Jeunesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* SVP faire parvenir les inscriptions par courriel avant le 22 février 2026 (animationculturelle@grandnord.ca) </t>
   </si>
   <si>
     <t xml:space="preserve">* SVP envoyer les frais (100$/élève) par la poste avant le 22 février 2026. </t>
@@ -1045,7 +1042,7 @@
   </sheetPr>
   <dimension ref="A1:X224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1151,7 @@
     <row r="5" spans="1:24" ht="22.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1182,7 +1179,7 @@
     <row r="6" spans="1:24" ht="23.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1210,7 +1207,7 @@
     <row r="7" spans="1:24" ht="23.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1238,7 +1235,7 @@
     <row r="8" spans="1:24" ht="36" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1266,7 +1263,7 @@
     <row r="9" spans="1:24" ht="36" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1320,7 +1317,7 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1374,7 +1371,7 @@
     <row r="13" spans="1:24" ht="24" customHeight="1" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1428,7 +1425,7 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -1455,7 +1452,7 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -1482,7 +1479,7 @@
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -1509,7 +1506,7 @@
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -1536,7 +1533,7 @@
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -1563,7 +1560,7 @@
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
@@ -1590,7 +1587,7 @@
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -1659,25 +1656,25 @@
     <row r="24" spans="1:24" ht="36" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -7712,7 +7709,9 @@
   </sheetPr>
   <dimension ref="A1:X308"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7818,7 +7817,7 @@
     <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -7846,7 +7845,7 @@
     <row r="6" spans="1:24" ht="26.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -7874,7 +7873,7 @@
     <row r="7" spans="1:24" ht="23.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -7902,7 +7901,7 @@
     <row r="8" spans="1:24" ht="24" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7930,7 +7929,7 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -7984,7 +7983,7 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -8038,7 +8037,7 @@
     <row r="13" spans="1:24" ht="24.75" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -8092,7 +8091,7 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -8119,7 +8118,7 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -8146,7 +8145,7 @@
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -8173,7 +8172,7 @@
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -8200,7 +8199,7 @@
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -8227,7 +8226,7 @@
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
@@ -8254,7 +8253,7 @@
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -8323,22 +8322,22 @@
     <row r="24" spans="1:24" ht="36" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>22</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -8361,7 +8360,7 @@
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -8529,7 +8528,7 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -8697,7 +8696,7 @@
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -8865,7 +8864,7 @@
     <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -9033,7 +9032,7 @@
     <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -9201,7 +9200,7 @@
     <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -9369,7 +9368,7 @@
     <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -9537,7 +9536,7 @@
     <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -9705,7 +9704,7 @@
     <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
@@ -9873,7 +9872,7 @@
     <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -10041,7 +10040,7 @@
     <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -10209,7 +10208,7 @@
     <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
@@ -10377,7 +10376,7 @@
     <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
@@ -10545,7 +10544,7 @@
     <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
